--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H2">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I2">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J2">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>32.80069523428602</v>
+        <v>0.9303020232177779</v>
       </c>
       <c r="R2">
-        <v>32.80069523428602</v>
+        <v>8.37271820896</v>
       </c>
       <c r="S2">
-        <v>0.07049439284193633</v>
+        <v>0.001033133753924673</v>
       </c>
       <c r="T2">
-        <v>0.07049439284193633</v>
+        <v>0.001033133753924673</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H3">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I3">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J3">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>5.094620791965885</v>
+        <v>0.1178558194755556</v>
       </c>
       <c r="R3">
-        <v>5.094620791965885</v>
+        <v>1.06070237528</v>
       </c>
       <c r="S3">
-        <v>0.01094922521990127</v>
+        <v>0.0001308831133952568</v>
       </c>
       <c r="T3">
-        <v>0.01094922521990127</v>
+        <v>0.0001308831133952568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H4">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I4">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J4">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>10.66111173006159</v>
+        <v>0.2921205065955556</v>
       </c>
       <c r="R4">
-        <v>10.66111173006159</v>
+        <v>2.62908455936</v>
       </c>
       <c r="S4">
-        <v>0.02291258136642042</v>
+        <v>0.0003244102969200939</v>
       </c>
       <c r="T4">
-        <v>0.02291258136642042</v>
+        <v>0.0003244102969200939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H5">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I5">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J5">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>13.92616766172032</v>
+        <v>0.3286802184000001</v>
       </c>
       <c r="R5">
-        <v>13.92616766172032</v>
+        <v>2.9581219656</v>
       </c>
       <c r="S5">
-        <v>0.02992975383344344</v>
+        <v>0.0003650111677730728</v>
       </c>
       <c r="T5">
-        <v>0.02992975383344344</v>
+        <v>0.0003650111677730727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H6">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I6">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J6">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>23.70957056216903</v>
+        <v>0.5881215144177778</v>
       </c>
       <c r="R6">
-        <v>23.70957056216903</v>
+        <v>5.29309362976</v>
       </c>
       <c r="S6">
-        <v>0.05095598643214351</v>
+        <v>0.000653130029592621</v>
       </c>
       <c r="T6">
-        <v>0.05095598643214351</v>
+        <v>0.0006531300295926209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.891643922720495</v>
+        <v>0.02061333333333333</v>
       </c>
       <c r="H7">
-        <v>0.891643922720495</v>
+        <v>0.06184</v>
       </c>
       <c r="I7">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="J7">
-        <v>0.2388007537866872</v>
+        <v>0.003258757634485539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>24.92065350655834</v>
+        <v>0.6773210145777778</v>
       </c>
       <c r="R7">
-        <v>24.92065350655834</v>
+        <v>6.095889131199999</v>
       </c>
       <c r="S7">
-        <v>0.05355881409284224</v>
+        <v>0.000752189272879822</v>
       </c>
       <c r="T7">
-        <v>0.05355881409284224</v>
+        <v>0.0007521892728798218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H8">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I8">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J8">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>104.5552163956488</v>
+        <v>44.18146320730489</v>
       </c>
       <c r="R8">
-        <v>104.5552163956488</v>
+        <v>397.633168865744</v>
       </c>
       <c r="S8">
-        <v>0.2247073254277917</v>
+        <v>0.04906509907327422</v>
       </c>
       <c r="T8">
-        <v>0.2247073254277917</v>
+        <v>0.04906509907327421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H9">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I9">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J9">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>16.23956978817249</v>
+        <v>5.597152776165777</v>
       </c>
       <c r="R9">
-        <v>16.23956978817249</v>
+        <v>50.37437498549199</v>
       </c>
       <c r="S9">
-        <v>0.03490165693301625</v>
+        <v>0.00621583885083778</v>
       </c>
       <c r="T9">
-        <v>0.03490165693301625</v>
+        <v>0.006215838850837779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H10">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I10">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J10">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>33.98326882991273</v>
+        <v>13.87324878603378</v>
       </c>
       <c r="R10">
-        <v>33.98326882991273</v>
+        <v>124.859239074304</v>
       </c>
       <c r="S10">
-        <v>0.07303594895893807</v>
+        <v>0.0154067402195585</v>
       </c>
       <c r="T10">
-        <v>0.07303594895893807</v>
+        <v>0.0154067402195585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H11">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I11">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J11">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>44.39093327239193</v>
+        <v>15.60952530876</v>
       </c>
       <c r="R11">
-        <v>44.39093327239193</v>
+        <v>140.48572777884</v>
       </c>
       <c r="S11">
-        <v>0.0954038280704843</v>
+        <v>0.01733493755440995</v>
       </c>
       <c r="T11">
-        <v>0.0954038280704843</v>
+        <v>0.01733493755440994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.84219656388438</v>
+        <v>0.9789586666666666</v>
       </c>
       <c r="H12">
-        <v>2.84219656388438</v>
+        <v>2.936876</v>
       </c>
       <c r="I12">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="J12">
-        <v>0.7611992462133128</v>
+        <v>0.1547633746205911</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>75.57642492236788</v>
+        <v>27.93078849898489</v>
       </c>
       <c r="R12">
-        <v>75.57642492236788</v>
+        <v>251.377096490864</v>
       </c>
       <c r="S12">
-        <v>0.1624268677847272</v>
+        <v>0.03101814212144014</v>
       </c>
       <c r="T12">
-        <v>0.1624268677847272</v>
+        <v>0.03101814212144013</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9789586666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.936876</v>
+      </c>
+      <c r="I13">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="J13">
+        <v>0.1547633746205911</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N13">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P13">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q13">
+        <v>32.16700892640889</v>
+      </c>
+      <c r="R13">
+        <v>289.5030803376799</v>
+      </c>
+      <c r="S13">
+        <v>0.03572261680107051</v>
+      </c>
+      <c r="T13">
+        <v>0.03572261680107049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.325947</v>
+      </c>
+      <c r="H14">
+        <v>15.977841</v>
+      </c>
+      <c r="I14">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J14">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>45.13108133333333</v>
+      </c>
+      <c r="N14">
+        <v>135.393244</v>
+      </c>
+      <c r="O14">
+        <v>0.3170330137447531</v>
+      </c>
+      <c r="P14">
+        <v>0.317033013744753</v>
+      </c>
+      <c r="Q14">
+        <v>240.3657472340227</v>
+      </c>
+      <c r="R14">
+        <v>2163.291725106204</v>
+      </c>
+      <c r="S14">
+        <v>0.2669347809175542</v>
+      </c>
+      <c r="T14">
+        <v>0.2669347809175541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.84219656388438</v>
-      </c>
-      <c r="H13">
-        <v>2.84219656388438</v>
-      </c>
-      <c r="I13">
-        <v>0.7611992462133128</v>
-      </c>
-      <c r="J13">
-        <v>0.7611992462133128</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>27.9491093602959</v>
-      </c>
-      <c r="N13">
-        <v>27.9491093602959</v>
-      </c>
-      <c r="O13">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="P13">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="Q13">
-        <v>79.43686258746177</v>
-      </c>
-      <c r="R13">
-        <v>79.43686258746177</v>
-      </c>
-      <c r="S13">
-        <v>0.1707236190383553</v>
-      </c>
-      <c r="T13">
-        <v>0.1707236190383553</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.325947</v>
+      </c>
+      <c r="H15">
+        <v>15.977841</v>
+      </c>
+      <c r="I15">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J15">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N15">
+        <v>17.152367</v>
+      </c>
+      <c r="O15">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="P15">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="Q15">
+        <v>30.45086585551633</v>
+      </c>
+      <c r="R15">
+        <v>274.0577926996469</v>
+      </c>
+      <c r="S15">
+        <v>0.03381677838639043</v>
+      </c>
+      <c r="T15">
+        <v>0.03381677838639042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.325947</v>
+      </c>
+      <c r="H16">
+        <v>15.977841</v>
+      </c>
+      <c r="I16">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J16">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.17143466666666</v>
+      </c>
+      <c r="N16">
+        <v>42.514304</v>
+      </c>
+      <c r="O16">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="P16">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="Q16">
+        <v>75.47630994862932</v>
+      </c>
+      <c r="R16">
+        <v>679.2867895376639</v>
+      </c>
+      <c r="S16">
+        <v>0.08381914849534364</v>
+      </c>
+      <c r="T16">
+        <v>0.08381914849534364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.325947</v>
+      </c>
+      <c r="H17">
+        <v>15.977841</v>
+      </c>
+      <c r="I17">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J17">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.94503</v>
+      </c>
+      <c r="N17">
+        <v>47.83509</v>
+      </c>
+      <c r="O17">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="P17">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="Q17">
+        <v>84.92238469341001</v>
+      </c>
+      <c r="R17">
+        <v>764.3014622406901</v>
+      </c>
+      <c r="S17">
+        <v>0.09430935320023418</v>
+      </c>
+      <c r="T17">
+        <v>0.09430935320023415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.325947</v>
+      </c>
+      <c r="H18">
+        <v>15.977841</v>
+      </c>
+      <c r="I18">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J18">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>28.53112133333333</v>
+      </c>
+      <c r="N18">
+        <v>85.59336400000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="P18">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="Q18">
+        <v>151.9552400719027</v>
+      </c>
+      <c r="R18">
+        <v>1367.597160647124</v>
+      </c>
+      <c r="S18">
+        <v>0.1687517426448285</v>
+      </c>
+      <c r="T18">
+        <v>0.1687517426448285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.325947</v>
+      </c>
+      <c r="H19">
+        <v>15.977841</v>
+      </c>
+      <c r="I19">
+        <v>0.8419778677449234</v>
+      </c>
+      <c r="J19">
+        <v>0.8419778677449233</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N19">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P19">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q19">
+        <v>175.0020613984867</v>
+      </c>
+      <c r="R19">
+        <v>1575.01855258638</v>
+      </c>
+      <c r="S19">
+        <v>0.1943460641005726</v>
+      </c>
+      <c r="T19">
+        <v>0.1943460641005725</v>
       </c>
     </row>
   </sheetData>
